--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value491.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value491.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7752459282486317</v>
+        <v>1.289852738380432</v>
       </c>
       <c r="B1">
-        <v>1.13529387960889</v>
+        <v>3.258122444152832</v>
       </c>
       <c r="C1">
-        <v>2.415849826489489</v>
+        <v>5.820755958557129</v>
       </c>
       <c r="D1">
-        <v>3.945656463031902</v>
+        <v>1.750788927078247</v>
       </c>
       <c r="E1">
-        <v>1.522459574378504</v>
+        <v>1.026689171791077</v>
       </c>
     </row>
   </sheetData>
